--- a/src/test/resources/inputData.xlsx
+++ b/src/test/resources/inputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13515" windowHeight="10260" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18030" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="5" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:R32"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>UserName</t>
   </si>
@@ -67,12 +68,6 @@
   </si>
   <si>
     <t>Suites</t>
-  </si>
-  <si>
-    <t>Group1</t>
-  </si>
-  <si>
-    <t>Group2</t>
   </si>
   <si>
     <t>Func3</t>
@@ -514,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +525,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -538,7 +533,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -564,7 +559,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -604,7 +599,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -612,7 +607,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -620,7 +615,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -655,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
@@ -759,37 +754,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -797,28 +792,28 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>1234567890</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
       </c>
       <c r="H2">
         <v>4151251</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -832,28 +827,28 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>1234567891</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
       </c>
       <c r="H3">
         <v>452012</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -867,28 +862,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>1234567892</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
       </c>
       <c r="H4">
         <v>452013</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
@@ -902,28 +897,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1234567893</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
       </c>
       <c r="H5">
         <v>4151254</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
         <v>9</v>

--- a/src/test/resources/inputData.xlsx
+++ b/src/test/resources/inputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="18030" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13200" windowHeight="6660" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Suite" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R32"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +631,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
